--- a/biology/Botanique/Acacia_macrostachya/Acacia_macrostachya.xlsx
+++ b/biology/Botanique/Acacia_macrostachya/Acacia_macrostachya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acacia macrostachya est une espèce de plantes de la famille des Fabaceae et du genre Acacia présente en Afrique tropicale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacia macrostachya est une espèce de plantes de la famille des Fabaceae et du genre Acacia présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste ou petit arbre atteignant 4,5 m[4], voire 15 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou petit arbre atteignant 4,5 m, voire 15 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, au Sahel, au Soudan[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, au Sahel, au Soudan.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans la savane arbustive[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans la savane arbustive.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle connaît de multiples utilisations en médecine traditionnelle[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle connaît de multiples utilisations en médecine traditionnelle.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (27 juin 2020)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Acacia macrostachya var. macrostachya
 variété Acacia macrostachya var. spinosissima A. Chev.</t>
         </is>
